--- a/Proyecto 2/Datos.xlsx
+++ b/Proyecto 2/Datos.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4DD1C4A5625FDA4777A81BA6D1E024693EDF3F" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{01B55697-3428-4BF3-B84B-A8D1FC660D74}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4DD1C4A5625FDA4777A81BA6D1E024693EDF3F" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{0524C044-916F-40D5-B943-5B5F9DD86BE2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Idioma</t>
   </si>
@@ -32,6 +37,18 @@
   </si>
   <si>
     <t>Marca</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Factura</t>
   </si>
 </sst>
 </file>
@@ -349,47 +366,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>193</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>27560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>59990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>107018</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B9">
+    <sortCondition ref="B2:B9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Proyecto 2/Datos.xlsx
+++ b/Proyecto 2/Datos.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4DD1C4A5625FDA4777A81BA6D1E024693EDF3F" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{0524C044-916F-40D5-B943-5B5F9DD86BE2}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="6_{6ED6F3AE-FF78-41F0-8DBB-6C527D44AADC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{4D310A6B-5CE5-4B47-B655-0148FEE51CF8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual"/>
+  <calcPr calcId="179021" calcMode="manual" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Idioma</t>
   </si>
@@ -49,6 +49,30 @@
   </si>
   <si>
     <t>Factura</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Anno</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -366,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,79 +401,163 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B11">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>9089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B12">
+        <v>504</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B13">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>27560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B14">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>59990</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>SUM(B2:B9)</f>
-        <v>107018</v>
+      <c r="B15">
+        <v>59995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f ca="1">SUM(B2:B15)</f>
+        <v>101382</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B9">
-    <sortCondition ref="B2:B9"/>
+  <sortState ref="A2:B15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Proyecto 2/Datos.xlsx
+++ b/Proyecto 2/Datos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="6_{6ED6F3AE-FF78-41F0-8DBB-6C527D44AADC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{4D310A6B-5CE5-4B47-B655-0148FEE51CF8}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="6_{6ED6F3AE-FF78-41F0-8DBB-6C527D44AADC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{57749D44-97CD-4323-8D11-93D03308305E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Idioma</t>
   </si>
@@ -69,17 +69,20 @@
     <t>Anno</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +90,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,13 +124,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -125,6 +200,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DCD69A2-2BD2-436D-BB38-DBA3575CA051}" name="Tabla1" displayName="Tabla1" ref="A1:B16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:B16" xr:uid="{36842428-ED85-4945-907D-C88EC0A7D783}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{64E88F07-7673-458C-A02A-5A7E6495092D}" name="Tabla" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DB151035-7488-4C48-86E1-E34A40932C90}" name="Cantidad" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,176 +476,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>70</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>97</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>100</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>193</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>504</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>10000</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>59995</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
         <f ca="1">SUM(B2:B15)</f>
         <v>101382</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
     <sortCondition ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>